--- a/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$107</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="651">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:05:55+00:00</t>
+    <t>2024-02-09T16:27:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -629,6 +629,22 @@
   </si>
   <si>
     <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-outcome-measure-r5</t>
+  </si>
+  <si>
+    <t>eclaire-outcome-measure-r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure}
+</t>
+  </si>
+  <si>
+    <t>Conséquences principales (primary outcomes) + Conséquences secondaires (secondary outcomes)</t>
+  </si>
+  <si>
+    <t>Cette extension implemente l'élément outcomeMeasure de R5. elle permet l'ajout des conséquences principales et secondaires de l'essai</t>
   </si>
   <si>
     <t>ResearchStudy.extension:eclaire-label-r5</t>
@@ -2331,7 +2347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO106"/>
+  <dimension ref="A1:AO107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4610,11 +4626,13 @@
         <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4624,29 +4642,25 @@
         <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4682,19 +4696,19 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4715,7 +4729,7 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4733,7 +4747,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4746,23 +4760,25 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4799,10 +4815,10 @@
         <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>80</v>
@@ -4811,7 +4827,7 @@
         <v>144</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4823,34 +4839,32 @@
         <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4859,10 +4873,10 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
@@ -4871,17 +4885,17 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4918,19 +4932,19 @@
         <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4945,29 +4959,31 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4979,25 +4995,27 @@
         <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -5045,53 +5063,53 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -5103,17 +5121,15 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5150,31 +5166,31 @@
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -5183,7 +5199,7 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -5194,46 +5210,44 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5242,7 +5256,7 @@
         <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>80</v>
@@ -5257,52 +5271,52 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5313,10 +5327,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5324,7 +5338,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -5333,25 +5347,25 @@
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5361,7 +5375,7 @@
         <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>80</v>
@@ -5376,13 +5390,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -5400,7 +5414,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5418,10 +5432,10 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5432,10 +5446,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5458,19 +5472,19 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5483,7 +5497,7 @@
         <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>80</v>
@@ -5495,13 +5509,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5519,7 +5533,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5537,10 +5551,10 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5551,10 +5565,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5577,18 +5591,20 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5600,7 +5616,7 @@
         <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>80</v>
@@ -5636,7 +5652,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5654,10 +5670,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5668,10 +5684,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5694,16 +5710,16 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5717,7 +5733,7 @@
         <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>80</v>
@@ -5753,7 +5769,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5765,16 +5781,16 @@
         <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>276</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5785,10 +5801,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5808,18 +5824,20 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>175</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5868,7 +5886,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5877,19 +5895,19 @@
         <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5900,21 +5918,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5926,17 +5944,15 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5973,31 +5989,31 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -6006,7 +6022,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -6017,21 +6033,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -6040,19 +6056,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
+        <v>141</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6090,40 +6106,40 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>104</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6134,10 +6150,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6160,24 +6176,22 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q33" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6221,7 +6235,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6230,7 +6244,7 @@
         <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>103</v>
@@ -6239,10 +6253,10 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6253,10 +6267,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6279,22 +6293,24 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="R34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6338,7 +6354,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6347,19 +6363,19 @@
         <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6370,14 +6386,12 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6386,10 +6400,10 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
@@ -6398,18 +6412,18 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6457,44 +6471,46 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6503,28 +6519,30 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6572,53 +6590,53 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6630,17 +6648,15 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6677,31 +6693,31 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6710,7 +6726,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6721,46 +6737,44 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6769,7 +6783,7 @@
         <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>80</v>
@@ -6784,52 +6798,52 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6840,10 +6854,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6851,7 +6865,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
@@ -6860,25 +6874,25 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6888,7 +6902,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6903,13 +6917,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6927,7 +6941,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6945,10 +6959,10 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6959,10 +6973,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6985,19 +6999,19 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7010,7 +7024,7 @@
         <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>80</v>
@@ -7022,13 +7036,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -7046,7 +7060,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7064,10 +7078,10 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -7078,10 +7092,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7104,18 +7118,20 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -7127,7 +7143,7 @@
         <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>80</v>
@@ -7163,7 +7179,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7181,10 +7197,10 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7195,10 +7211,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7221,16 +7237,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7244,7 +7260,7 @@
         <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>80</v>
@@ -7280,7 +7296,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7292,16 +7308,16 @@
         <v>102</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>276</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7312,10 +7328,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7338,16 +7354,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7397,7 +7413,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7409,16 +7425,16 @@
         <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7429,10 +7445,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7446,7 +7462,7 @@
         <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -7455,16 +7471,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7514,7 +7530,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7526,19 +7542,19 @@
         <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7546,10 +7562,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7560,10 +7576,10 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7572,16 +7588,16 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7631,31 +7647,31 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>336</v>
+        <v>111</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7663,14 +7679,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7689,20 +7705,18 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7750,7 +7764,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7762,19 +7776,19 @@
         <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7782,44 +7796,46 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7843,13 +7859,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7867,42 +7883,42 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7910,31 +7926,31 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7960,13 +7976,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7984,10 +8000,10 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>90</v>
@@ -7999,27 +8015,27 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8033,7 +8049,7 @@
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>80</v>
@@ -8042,16 +8058,16 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8077,11 +8093,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -8099,7 +8117,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8114,16 +8132,16 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL49" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="AN49" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8131,10 +8149,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8145,7 +8163,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>91</v>
@@ -8157,16 +8175,16 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8192,11 +8210,11 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -8214,13 +8232,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>102</v>
@@ -8229,16 +8247,16 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8246,10 +8264,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8263,7 +8281,7 @@
         <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
@@ -8272,16 +8290,16 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8307,13 +8325,11 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8331,7 +8347,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8346,27 +8362,27 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8380,7 +8396,7 @@
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -8389,16 +8405,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8424,13 +8440,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8439,16 +8455,16 @@
         <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8463,31 +8479,29 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8508,16 +8522,16 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8543,13 +8557,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8558,16 +8572,16 @@
         <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8582,29 +8596,31 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8613,27 +8629,29 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>175</v>
+        <v>398</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8643,7 +8661,7 @@
         <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>80</v>
@@ -8658,13 +8676,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8682,53 +8700,53 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>177</v>
+        <v>388</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8740,17 +8758,15 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8760,7 +8776,7 @@
         <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>80</v>
@@ -8787,31 +8803,31 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
@@ -8820,7 +8836,7 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8831,14 +8847,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8854,23 +8870,21 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>401</v>
+        <v>138</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>402</v>
+        <v>139</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>403</v>
+        <v>230</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8906,19 +8920,19 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>406</v>
+        <v>182</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8930,16 +8944,16 @@
         <v>102</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>408</v>
+        <v>104</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8950,10 +8964,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8964,7 +8978,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8973,19 +8987,23 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>174</v>
+        <v>406</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>175</v>
+        <v>407</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -9033,28 +9051,28 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>177</v>
+        <v>411</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>111</v>
+        <v>413</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9065,21 +9083,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9091,17 +9109,15 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9138,31 +9154,31 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
@@ -9171,7 +9187,7 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9182,21 +9198,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9205,23 +9221,21 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>415</v>
+        <v>139</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>416</v>
+        <v>230</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9230,7 +9244,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -9257,40 +9271,40 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>420</v>
+        <v>182</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>422</v>
+        <v>104</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9301,10 +9315,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9327,18 +9341,20 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9347,7 +9363,7 @@
         <v>80</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>80</v>
@@ -9386,7 +9402,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9404,10 +9420,10 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9418,10 +9434,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9444,20 +9460,18 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9505,7 +9519,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9523,10 +9537,10 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9537,10 +9551,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9563,19 +9577,19 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9624,7 +9638,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9642,10 +9656,10 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9656,10 +9670,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9682,19 +9696,19 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>449</v>
+        <v>174</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9743,7 +9757,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9761,10 +9775,10 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9775,10 +9789,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9801,19 +9815,19 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>174</v>
+        <v>454</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9862,7 +9876,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9880,10 +9894,10 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9894,14 +9908,12 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9910,10 +9922,10 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
@@ -9922,18 +9934,20 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>385</v>
+        <v>465</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9957,13 +9971,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9981,13 +9995,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>383</v>
+        <v>468</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>102</v>
@@ -9996,29 +10010,31 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>361</v>
+        <v>469</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>362</v>
+        <v>470</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10027,27 +10043,29 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>175</v>
+        <v>473</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10057,7 +10075,7 @@
         <v>80</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>80</v>
@@ -10072,13 +10090,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -10096,53 +10114,53 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>177</v>
+        <v>388</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -10154,17 +10172,15 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10174,7 +10190,7 @@
         <v>80</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>80</v>
@@ -10201,31 +10217,31 @@
         <v>80</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10234,7 +10250,7 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10245,14 +10261,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10268,23 +10284,21 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>401</v>
+        <v>138</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>402</v>
+        <v>139</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>403</v>
+        <v>230</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10320,19 +10334,19 @@
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>406</v>
+        <v>182</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10344,16 +10358,16 @@
         <v>102</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>408</v>
+        <v>104</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10364,10 +10378,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10375,10 +10389,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -10390,19 +10404,19 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>174</v>
+        <v>406</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>461</v>
+        <v>409</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10451,13 +10465,13 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>102</v>
@@ -10469,10 +10483,10 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10483,10 +10497,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10494,13 +10508,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>80</v>
@@ -10509,16 +10523,20 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>475</v>
+        <v>174</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10566,13 +10584,13 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>102</v>
@@ -10581,16 +10599,16 @@
         <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>111</v>
+        <v>470</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10598,10 +10616,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10612,25 +10630,25 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>175</v>
+        <v>481</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>176</v>
+        <v>482</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10681,22 +10699,22 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>177</v>
+        <v>479</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10705,7 +10723,7 @@
         <v>111</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10713,21 +10731,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10739,17 +10757,15 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10786,31 +10802,31 @@
         <v>80</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -10819,7 +10835,7 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10830,26 +10846,24 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>80</v>
@@ -10858,15 +10872,17 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>484</v>
+        <v>138</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>485</v>
+        <v>139</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10903,16 +10919,16 @@
         <v>80</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>182</v>
@@ -10936,7 +10952,7 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10950,7 +10966,7 @@
         <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>488</v>
@@ -11067,7 +11083,7 @@
         <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>493</v>
@@ -11184,7 +11200,7 @@
         <v>497</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>498</v>
@@ -11200,7 +11216,7 @@
         <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>80</v>
@@ -11301,9 +11317,11 @@
         <v>502</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11321,20 +11339,18 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>174</v>
+        <v>504</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -11383,19 +11399,19 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>506</v>
+        <v>182</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
@@ -11404,7 +11420,7 @@
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11429,7 +11445,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -11441,15 +11457,17 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11504,22 +11522,22 @@
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>512</v>
+        <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>513</v>
+        <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>514</v>
+        <v>111</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
@@ -11530,10 +11548,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11547,26 +11565,24 @@
         <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J79" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K79" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11615,7 +11631,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11627,19 +11643,19 @@
         <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>517</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>111</v>
+        <v>519</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>521</v>
+        <v>80</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11647,10 +11663,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11664,25 +11680,25 @@
         <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>240</v>
+        <v>521</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11708,10 +11724,10 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>525</v>
+        <v>80</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>80</v>
@@ -11732,7 +11748,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11747,16 +11763,16 @@
         <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -11764,10 +11780,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11781,7 +11797,7 @@
         <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>80</v>
@@ -11790,16 +11806,16 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="N81" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11825,13 +11841,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -11849,7 +11865,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11864,16 +11880,16 @@
         <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -11881,10 +11897,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11895,7 +11911,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>91</v>
@@ -11904,19 +11920,19 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="N82" t="s" s="2">
-        <v>537</v>
+        <v>362</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11942,13 +11958,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11966,13 +11982,13 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>102</v>
@@ -11984,13 +12000,13 @@
         <v>538</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>539</v>
+        <v>80</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -11998,21 +12014,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>91</v>
@@ -12021,19 +12037,19 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12083,56 +12099,56 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>547</v>
+        <v>111</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>549</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>80</v>
@@ -12141,16 +12157,16 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>271</v>
+        <v>547</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>274</v>
+        <v>550</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12200,46 +12216,46 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>558</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12255,18 +12271,20 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>175</v>
+        <v>557</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12315,7 +12333,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>177</v>
+        <v>555</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12324,44 +12342,44 @@
         <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>80</v>
+        <v>559</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>111</v>
+        <v>561</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12373,17 +12391,15 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12420,31 +12436,31 @@
         <v>80</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
@@ -12453,7 +12469,7 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
@@ -12464,21 +12480,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -12487,19 +12503,19 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>562</v>
+        <v>139</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>288</v>
+        <v>141</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12537,40 +12553,40 @@
         <v>80</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>292</v>
+        <v>104</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>80</v>
@@ -12581,10 +12597,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12598,7 +12614,7 @@
         <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>80</v>
@@ -12607,24 +12623,22 @@
         <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q88" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12668,7 +12682,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12677,7 +12691,7 @@
         <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>103</v>
@@ -12686,10 +12700,10 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -12700,10 +12714,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12726,22 +12740,24 @@
         <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>567</v>
+        <v>301</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="R89" t="s" s="2">
         <v>80</v>
       </c>
@@ -12785,7 +12801,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>565</v>
+        <v>304</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12794,33 +12810,33 @@
         <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>568</v>
+        <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>569</v>
+        <v>306</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>570</v>
+        <v>80</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>571</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12834,7 +12850,7 @@
         <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>80</v>
@@ -12843,16 +12859,16 @@
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>573</v>
+        <v>309</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12902,7 +12918,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12914,30 +12930,30 @@
         <v>102</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AO90" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>571</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12948,10 +12964,10 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>80</v>
@@ -12960,16 +12976,16 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>582</v>
-      </c>
       <c r="N91" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13019,42 +13035,42 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AL91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AO91" t="s" s="2">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13065,10 +13081,10 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>80</v>
@@ -13077,16 +13093,16 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>240</v>
+        <v>585</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>588</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13112,13 +13128,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>589</v>
+        <v>80</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -13136,42 +13152,42 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>362</v>
+        <v>582</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13182,7 +13198,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
@@ -13191,19 +13207,19 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>595</v>
+        <v>245</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>598</v>
+        <v>362</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13229,13 +13245,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>80</v>
+        <v>594</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>80</v>
+        <v>595</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13253,13 +13269,13 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>102</v>
@@ -13268,27 +13284,27 @@
         <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>104</v>
+        <v>366</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>600</v>
+        <v>367</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>80</v>
+        <v>597</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>80</v>
+        <v>598</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13311,15 +13327,17 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13368,7 +13386,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13383,16 +13401,16 @@
         <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="AL94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AN94" t="s" s="2">
-        <v>606</v>
+        <v>80</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13400,10 +13418,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13414,7 +13432,7 @@
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13426,13 +13444,13 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>174</v>
+        <v>607</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>175</v>
+        <v>608</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>176</v>
+        <v>609</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13483,22 +13501,22 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>177</v>
+        <v>606</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>80</v>
+        <v>610</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>80</v>
@@ -13507,7 +13525,7 @@
         <v>111</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>80</v>
+        <v>611</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13515,21 +13533,21 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
@@ -13541,17 +13559,15 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13588,31 +13604,31 @@
         <v>80</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>80</v>
@@ -13621,7 +13637,7 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>80</v>
@@ -13632,14 +13648,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>610</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13652,26 +13668,24 @@
         <v>80</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>611</v>
+        <v>139</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>612</v>
+        <v>230</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O97" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>80</v>
       </c>
@@ -13707,19 +13721,19 @@
         <v>80</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>613</v>
+        <v>182</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13758,37 +13772,39 @@
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>80</v>
+        <v>615</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
       </c>
@@ -13836,31 +13852,31 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>617</v>
+        <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>618</v>
+        <v>80</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -13879,7 +13895,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>90</v>
@@ -13894,7 +13910,7 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>620</v>
@@ -13903,7 +13919,7 @@
         <v>621</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13956,7 +13972,7 @@
         <v>619</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>90</v>
@@ -13971,10 +13987,10 @@
         <v>622</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>362</v>
+        <v>111</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>623</v>
@@ -14011,7 +14027,7 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>625</v>
@@ -14020,7 +14036,7 @@
         <v>626</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14088,10 +14104,10 @@
         <v>627</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>628</v>
@@ -14116,7 +14132,7 @@
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>80</v>
@@ -14128,7 +14144,7 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>602</v>
+        <v>174</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>630</v>
@@ -14136,7 +14152,9 @@
       <c r="M101" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="N101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>80</v>
@@ -14191,7 +14209,7 @@
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>102</v>
@@ -14209,7 +14227,7 @@
         <v>111</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>80</v>
+        <v>633</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
@@ -14217,10 +14235,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14231,7 +14249,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>80</v>
@@ -14243,13 +14261,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>174</v>
+        <v>607</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>175</v>
+        <v>635</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>176</v>
+        <v>636</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14300,22 +14318,22 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>177</v>
+        <v>634</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>80</v>
+        <v>637</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>80</v>
@@ -14332,21 +14350,21 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>80</v>
@@ -14358,17 +14376,15 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14405,31 +14421,31 @@
         <v>80</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>80</v>
@@ -14438,7 +14454,7 @@
         <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>80</v>
@@ -14449,14 +14465,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>610</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14469,26 +14485,24 @@
         <v>80</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>611</v>
+        <v>139</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>612</v>
+        <v>230</v>
       </c>
       <c r="N104" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O104" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>80</v>
       </c>
@@ -14524,19 +14538,19 @@
         <v>80</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>613</v>
+        <v>182</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14568,44 +14582,46 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>80</v>
+        <v>615</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
       </c>
@@ -14653,28 +14669,28 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>639</v>
+        <v>80</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>80</v>
@@ -14685,10 +14701,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14711,16 +14727,16 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14746,13 +14762,13 @@
         <v>80</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>643</v>
+        <v>80</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>644</v>
+        <v>80</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>80</v>
@@ -14770,7 +14786,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14785,23 +14801,140 @@
         <v>103</v>
       </c>
       <c r="AK106" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="AL106" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM106" t="s" s="2">
+      <c r="B107" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AN106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO106" t="s" s="2">
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO107" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO106">
+  <autoFilter ref="A1:AO107">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14811,7 +14944,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI105">
+  <conditionalFormatting sqref="A2:AI106">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T16:27:19+00:00</t>
+    <t>2024-02-09T16:53:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T16:53:12+00:00</t>
+    <t>2024-02-10T11:32:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T11:32:40+00:00</t>
+    <t>2024-02-12T07:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T07:45:47+00:00</t>
+    <t>2024-02-12T07:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T07:58:20+00:00</t>
+    <t>2024-02-12T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T09:03:44+00:00</t>
+    <t>2024-02-12T09:34:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
